--- a/linguistic_parameters/attempt_corr.xlsx
+++ b/linguistic_parameters/attempt_corr.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -40,16 +40,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -62,8 +64,8 @@
   <dimension ref="A1:E5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.37890625" customWidth="true"/>
+    <col min="1" max="1" width="14.37890625" customWidth="true"/>
+    <col min="2" max="2" width="14.37890625" customWidth="true"/>
     <col min="3" max="3" width="14.37890625" customWidth="true"/>
     <col min="4" max="4" width="14.37890625" customWidth="true"/>
     <col min="5" max="5" width="14.37890625" customWidth="true"/>
@@ -74,81 +76,81 @@
         <v>1</v>
       </c>
       <c r="B1" s="0">
-        <v>0.94698806859882634</v>
+        <v>0.92927121238858157</v>
       </c>
       <c r="C1" s="0">
-        <v>-0.017658090595992017</v>
+        <v>-0.023305334340051487</v>
       </c>
       <c r="D1" s="0">
-        <v>0.2301469670669877</v>
+        <v>0.3148739079096049</v>
       </c>
       <c r="E1" s="0">
-        <v>-0.046950248489961627</v>
+        <v>-0.063142713267619235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.94698806859882634</v>
+        <v>0.92927121238858157</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.032432590802305004</v>
+        <v>-0.034939456220168336</v>
       </c>
       <c r="D2" s="0">
-        <v>0.13396669455164195</v>
+        <v>0.33411954667249355</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.11191396286958392</v>
+        <v>-0.099479711167631268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.017658090595992017</v>
+        <v>-0.023305334340051487</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.032432590802305004</v>
+        <v>-0.034939456220168336</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.093185615318802803</v>
+        <v>-0.088302157137669673</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.07982550272265615</v>
+        <v>-0.13286803992214366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2301469670669877</v>
+        <v>0.3148739079096049</v>
       </c>
       <c r="B4" s="0">
-        <v>0.13396669455164195</v>
+        <v>0.33411954667249355</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.093185615318802803</v>
+        <v>-0.088302157137669673</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0">
-        <v>0.24266535625585733</v>
+        <v>0.14493972547312689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.046950248489961627</v>
+        <v>-0.063142713267619235</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.11191396286958392</v>
+        <v>-0.099479711167631268</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.07982550272265615</v>
+        <v>-0.13286803992214366</v>
       </c>
       <c r="D5" s="0">
-        <v>0.24266535625585733</v>
+        <v>0.14493972547312689</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
